--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp10-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp10-Bmpr1b.xlsx
@@ -546,40 +546,40 @@
         <v>0.229421</v>
       </c>
       <c r="I2">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J2">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N2">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O2">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P2">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q2">
-        <v>0.002992643997666667</v>
+        <v>0.005551911726333335</v>
       </c>
       <c r="R2">
-        <v>0.026933795979</v>
+        <v>0.04996720553700001</v>
       </c>
       <c r="S2">
-        <v>0.001227138029791412</v>
+        <v>0.001109192584066245</v>
       </c>
       <c r="T2">
-        <v>0.001227138029791412</v>
+        <v>0.001109192584066245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.229421</v>
       </c>
       <c r="I3">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J3">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>12.561996</v>
       </c>
       <c r="O3">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P3">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q3">
         <v>0.3202206315906668</v>
@@ -638,10 +638,10 @@
         <v>2.881985684316</v>
       </c>
       <c r="S3">
-        <v>0.131306936359659</v>
+        <v>0.06397550381442277</v>
       </c>
       <c r="T3">
-        <v>0.131306936359659</v>
+        <v>0.06397550381442277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.229421</v>
       </c>
       <c r="I4">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J4">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N4">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O4">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P4">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q4">
-        <v>0.01992167057011111</v>
+        <v>0.01673768945844445</v>
       </c>
       <c r="R4">
-        <v>0.179295035131</v>
+        <v>0.150639205126</v>
       </c>
       <c r="S4">
-        <v>0.008168910031604327</v>
+        <v>0.003343951045484561</v>
       </c>
       <c r="T4">
-        <v>0.008168910031604325</v>
+        <v>0.003343951045484561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H5">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I5">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J5">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N5">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O5">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P5">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q5">
-        <v>0.012363797419</v>
+        <v>0.04514096921500001</v>
       </c>
       <c r="R5">
-        <v>0.111274176771</v>
+        <v>0.406268722935</v>
       </c>
       <c r="S5">
-        <v>0.005069793138549499</v>
+        <v>0.009018520242919745</v>
       </c>
       <c r="T5">
-        <v>0.005069793138549498</v>
+        <v>0.009018520242919745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H6">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I6">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J6">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,22 +812,22 @@
         <v>12.561996</v>
       </c>
       <c r="O6">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P6">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q6">
-        <v>1.322958234076</v>
+        <v>2.60362022762</v>
       </c>
       <c r="R6">
-        <v>11.906624106684</v>
+        <v>23.43258204858</v>
       </c>
       <c r="S6">
-        <v>0.5424809506664133</v>
+        <v>0.5201660960319787</v>
       </c>
       <c r="T6">
-        <v>0.5424809506664131</v>
+        <v>0.5201660960319787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H7">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I7">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J7">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N7">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O7">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P7">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q7">
-        <v>0.08230430995766666</v>
+        <v>0.1360892539033333</v>
       </c>
       <c r="R7">
-        <v>0.740738789619</v>
+        <v>1.22480328513</v>
       </c>
       <c r="S7">
-        <v>0.033749002167829</v>
+        <v>0.02718868718404093</v>
       </c>
       <c r="T7">
-        <v>0.03374900216782899</v>
+        <v>0.02718868718404093</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H8">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I8">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J8">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N8">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O8">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P8">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q8">
-        <v>0.005912787590666668</v>
+        <v>0.03044143829066667</v>
       </c>
       <c r="R8">
-        <v>0.053215088316</v>
+        <v>0.2739729446160001</v>
       </c>
       <c r="S8">
-        <v>0.002424547163058179</v>
+        <v>0.006081764131833109</v>
       </c>
       <c r="T8">
-        <v>0.002424547163058179</v>
+        <v>0.00608176413183311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H9">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I9">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J9">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>12.561996</v>
       </c>
       <c r="O9">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P9">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q9">
-        <v>0.6326835327626668</v>
+        <v>1.755787389365334</v>
       </c>
       <c r="R9">
-        <v>5.694151794864</v>
+        <v>15.802086504288</v>
       </c>
       <c r="S9">
-        <v>0.2594328040626257</v>
+        <v>0.350781216899365</v>
       </c>
       <c r="T9">
-        <v>0.2594328040626257</v>
+        <v>0.350781216899365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H10">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I10">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J10">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N10">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O10">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P10">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q10">
-        <v>0.03936071468044444</v>
+        <v>0.09177367470755557</v>
       </c>
       <c r="R10">
-        <v>0.354246432124</v>
+        <v>0.8259630723680002</v>
       </c>
       <c r="S10">
-        <v>0.01613991838046968</v>
+        <v>0.01833506806588893</v>
       </c>
       <c r="T10">
-        <v>0.01613991838046968</v>
+        <v>0.01833506806588893</v>
       </c>
     </row>
   </sheetData>
